--- a/ExcelFiles/CarsReport.xlsx
+++ b/ExcelFiles/CarsReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
   <si>
     <t>ID</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>Kia Ceed</t>
+  </si>
+  <si>
+    <t>Dacia</t>
+  </si>
+  <si>
+    <t>Skoda Oktavia RS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Honda </t>
+  </si>
+  <si>
+    <t>AK</t>
   </si>
   <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
@@ -556,14 +568,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultColWidthPt="48.75" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="3.28125" widthPt="17.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" widthPt="79.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.421875" widthPt="86.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.28125" widthPt="27.75" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.421875" widthPt="60" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.8515625" widthPt="78" bestFit="1" customWidth="1"/>
@@ -687,6 +699,86 @@
         <v>3</v>
       </c>
       <c r="F6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="12.75">
+      <c r="A7">
+        <v>26</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>420</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="12.75">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>1500</v>
+      </c>
+      <c r="D8">
+        <v>3</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75">
+      <c r="A9">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>450</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75">
+      <c r="A10">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>720</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
         <v>3</v>
       </c>
     </row>
@@ -735,42 +827,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="3" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="3" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelFiles/CarsReport.xlsx
+++ b/ExcelFiles/CarsReport.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>ID</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t>AK</t>
+  </si>
+  <si>
+    <t>Ford</t>
   </si>
   <si>
     <t>https://www.e-iceblue.com/Buy/Spire.XLS.html</t>
@@ -568,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0" topLeftCell="A1"/>
   </sheetViews>
@@ -770,15 +773,35 @@
         <v>13</v>
       </c>
       <c r="C10">
-        <v>720</v>
+        <v>1680</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75">
+      <c r="A11">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11">
+        <v>600</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
         <v>3</v>
       </c>
     </row>
@@ -827,42 +850,42 @@
   <sheetData>
     <row r="1" ht="12.75">
       <c r="B1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" ht="12.75">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="12.75">
       <c r="B4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" ht="12.75">
       <c r="B5" s="3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" ht="12.75">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" ht="12.75">
       <c r="B8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" ht="12.75">
       <c r="B10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="12.75">
       <c r="B11" s="3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
